--- a/banhang24/Template/ExportExcel/Report/BaoCaoKho/Teamplate_BaoCaoHangHoaNhapChuyenHang.xlsx
+++ b/banhang24/Template/ExportExcel/Report/BaoCaoKho/Teamplate_BaoCaoHangHoaNhapChuyenHang.xlsx
@@ -18,10 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
-  <si>
-    <t>Tổng cộng:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>BÁO CÁO NHẬP HÀNG HÓA THEO ĐIỀU CHUYỂN HÀNG</t>
   </si>
@@ -130,7 +127,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,14 +139,8 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -172,49 +163,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -235,9 +189,6 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -249,9 +200,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -277,18 +225,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -595,11 +531,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,61 +550,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
     </row>
     <row r="4" spans="1:10" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="H4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="I4" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -935,30 +871,10 @@
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="8">
-        <f>SUM(H$5:H28)</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="8">
-        <f>SUM(I$5:I28)</f>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A29:E29"/>
   </mergeCells>
   <pageMargins left="0.76" right="0.23" top="0.78" bottom="0.87" header="0.3" footer="0.7"/>
   <pageSetup scale="95" orientation="landscape" r:id="rId1"/>
@@ -967,18 +883,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" style="18" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" style="16" customWidth="1"/>
     <col min="4" max="4" width="30.85546875" style="4" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" style="4" customWidth="1"/>
     <col min="6" max="6" width="20.140625" style="4" customWidth="1"/>
@@ -992,87 +908,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="12"/>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:13" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="14"/>
-      <c r="D3" s="9"/>
-    </row>
-    <row r="4" spans="1:13" s="12" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="B4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="C4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="D4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="I4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="J4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="K4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="10" t="s">
         <v>18</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="20"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="18"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -1086,8 +1002,8 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="20"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -1101,8 +1017,8 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="20"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -1116,8 +1032,8 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="20"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -1131,8 +1047,8 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="20"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1146,8 +1062,8 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="20"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -1161,8 +1077,8 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="20"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="18"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -1176,8 +1092,8 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="20"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="18"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1191,8 +1107,8 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="20"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1206,8 +1122,8 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="20"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1221,8 +1137,8 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="20"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -1236,8 +1152,8 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="20"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1251,8 +1167,8 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="20"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -1266,8 +1182,8 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="20"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="18"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -1281,8 +1197,8 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="20"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="18"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -1296,8 +1212,8 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="20"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="18"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -1311,8 +1227,8 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="20"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -1326,8 +1242,8 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="20"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -1341,8 +1257,8 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="20"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -1356,8 +1272,8 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="20"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -1371,8 +1287,8 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="20"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="18"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -1386,8 +1302,8 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="20"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="18"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -1401,8 +1317,8 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="20"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="18"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -1416,8 +1332,8 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="20"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -1429,36 +1345,9 @@
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
     </row>
-    <row r="29" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="8">
-        <f>SUM(I$5:I28)</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8">
-        <f>SUM(K$5:K28)</f>
-        <v>0</v>
-      </c>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8">
-        <f>SUM(M$5:M28)</f>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A29:H29"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
